--- a/BallPositions.xlsx
+++ b/BallPositions.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -377,6 +377,11 @@
           <t>Dist.</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Proximity</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -387,6 +392,11 @@
           <t>100</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -397,6 +407,11 @@
           <t>200</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -407,6 +422,11 @@
           <t>300</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -417,6 +437,11 @@
           <t>400</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Off Target</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -426,6 +451,11 @@
         <is>
           <t xml:space="preserve">500
 </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Off Target</t>
         </is>
       </c>
     </row>
